--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H2">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I2">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J2">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.106217</v>
+        <v>1.118034</v>
       </c>
       <c r="N2">
-        <v>3.318651</v>
+        <v>3.354102</v>
       </c>
       <c r="O2">
-        <v>0.01813136626967656</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="P2">
-        <v>0.01813136626967656</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="Q2">
-        <v>43.108732231236</v>
+        <v>42.46603460970599</v>
       </c>
       <c r="R2">
-        <v>387.978590081124</v>
+        <v>382.194311487354</v>
       </c>
       <c r="S2">
-        <v>0.01248768186716034</v>
+        <v>0.01268068607541922</v>
       </c>
       <c r="T2">
-        <v>0.01248768186716034</v>
+        <v>0.01268068607541922</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H3">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I3">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J3">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>177.734444</v>
       </c>
       <c r="O3">
-        <v>0.971047664518299</v>
+        <v>0.962887615892719</v>
       </c>
       <c r="P3">
-        <v>0.971047664518299</v>
+        <v>0.9628876158927191</v>
       </c>
       <c r="Q3">
-        <v>2308.741279111184</v>
+        <v>2250.282504897243</v>
       </c>
       <c r="R3">
-        <v>20778.67151200066</v>
+        <v>20252.54254407519</v>
       </c>
       <c r="S3">
-        <v>0.6687931914228475</v>
+        <v>0.6719517442084875</v>
       </c>
       <c r="T3">
-        <v>0.6687931914228474</v>
+        <v>0.6719517442084877</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H4">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I4">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J4">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6602006666666668</v>
+        <v>1.121724666666667</v>
       </c>
       <c r="N4">
-        <v>1.980602</v>
+        <v>3.365174</v>
       </c>
       <c r="O4">
-        <v>0.01082096921202439</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="P4">
-        <v>0.01082096921202439</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="Q4">
-        <v>25.727695161272</v>
+        <v>42.60621637376644</v>
       </c>
       <c r="R4">
-        <v>231.549256451448</v>
+        <v>383.455947363898</v>
       </c>
       <c r="S4">
-        <v>0.007452765500639116</v>
+        <v>0.01272254543337167</v>
       </c>
       <c r="T4">
-        <v>0.007452765500639114</v>
+        <v>0.01272254543337167</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.685730333333334</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H5">
-        <v>29.057191</v>
+        <v>113.948327</v>
       </c>
       <c r="I5">
-        <v>0.1711822560557247</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J5">
-        <v>0.1711822560557247</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.106217</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N5">
-        <v>3.318651</v>
+        <v>0.131107</v>
       </c>
       <c r="O5">
-        <v>0.01813136626967656</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="P5">
-        <v>0.01813136626967656</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="Q5">
-        <v>10.714519552149</v>
+        <v>1.659935923109889</v>
       </c>
       <c r="R5">
-        <v>96.43067596934101</v>
+        <v>14.939423307989</v>
       </c>
       <c r="S5">
-        <v>0.003103768183415904</v>
+        <v>0.0004956696931965657</v>
       </c>
       <c r="T5">
-        <v>0.003103768183415903</v>
+        <v>0.0004956696931965658</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>29.057191</v>
       </c>
       <c r="I6">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J6">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>59.24481466666666</v>
+        <v>1.118034</v>
       </c>
       <c r="N6">
-        <v>177.734444</v>
+        <v>3.354102</v>
       </c>
       <c r="O6">
-        <v>0.971047664518299</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="P6">
-        <v>0.971047664518299</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="Q6">
-        <v>573.8292985096449</v>
+        <v>10.828975827498</v>
       </c>
       <c r="R6">
-        <v>5164.463686586804</v>
+        <v>97.46078244748202</v>
       </c>
       <c r="S6">
-        <v>0.1662261299498849</v>
+        <v>0.003233615859094594</v>
       </c>
       <c r="T6">
-        <v>0.1662261299498849</v>
+        <v>0.003233615859094595</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>29.057191</v>
       </c>
       <c r="I7">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J7">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6602006666666668</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N7">
-        <v>1.980602</v>
+        <v>177.734444</v>
       </c>
       <c r="O7">
-        <v>0.01082096921202439</v>
+        <v>0.962887615892719</v>
       </c>
       <c r="P7">
-        <v>0.01082096921202439</v>
+        <v>0.9628876158927191</v>
       </c>
       <c r="Q7">
-        <v>6.394525623220224</v>
+        <v>573.8292985096449</v>
       </c>
       <c r="R7">
-        <v>57.55073060898201</v>
+        <v>5164.463686586804</v>
       </c>
       <c r="S7">
-        <v>0.001852357922423873</v>
+        <v>0.1713498625938507</v>
       </c>
       <c r="T7">
-        <v>0.001852357922423872</v>
+        <v>0.1713498625938508</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6067633333333333</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H8">
-        <v>1.82029</v>
+        <v>29.057191</v>
       </c>
       <c r="I8">
-        <v>0.01072372580252768</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J8">
-        <v>0.01072372580252768</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.106217</v>
+        <v>1.121724666666667</v>
       </c>
       <c r="N8">
-        <v>3.318651</v>
+        <v>3.365174</v>
       </c>
       <c r="O8">
-        <v>0.01813136626967656</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="P8">
-        <v>0.01813136626967656</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="Q8">
-        <v>0.6712119143099999</v>
+        <v>10.86472262958156</v>
       </c>
       <c r="R8">
-        <v>6.04090722879</v>
+        <v>97.78250366623401</v>
       </c>
       <c r="S8">
-        <v>0.0001944358003012107</v>
+        <v>0.00324429013041726</v>
       </c>
       <c r="T8">
-        <v>0.0001944358003012106</v>
+        <v>0.00324429013041726</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6067633333333333</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H9">
-        <v>1.82029</v>
+        <v>29.057191</v>
       </c>
       <c r="I9">
-        <v>0.01072372580252768</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J9">
-        <v>0.01072372580252768</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>59.24481466666666</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N9">
-        <v>177.734444</v>
+        <v>0.131107</v>
       </c>
       <c r="O9">
-        <v>0.971047664518299</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="P9">
-        <v>0.971047664518299</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="Q9">
-        <v>35.94758122986222</v>
+        <v>0.4232890156041111</v>
       </c>
       <c r="R9">
-        <v>323.52823106876</v>
+        <v>3.809601140437</v>
       </c>
       <c r="S9">
-        <v>0.01041324889547913</v>
+        <v>0.0001263973708725361</v>
       </c>
       <c r="T9">
-        <v>0.01041324889547913</v>
+        <v>0.0001263973708725361</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H10">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I10">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J10">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.6602006666666668</v>
+        <v>1.118034</v>
       </c>
       <c r="N10">
-        <v>1.980602</v>
+        <v>3.354102</v>
       </c>
       <c r="O10">
-        <v>0.01082096921202439</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="P10">
-        <v>0.01082096921202439</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="Q10">
-        <v>0.4005855571755556</v>
+        <v>0.6346646711519999</v>
       </c>
       <c r="R10">
-        <v>3.60527001458</v>
+        <v>5.711982040368</v>
       </c>
       <c r="S10">
-        <v>0.0001160411067473436</v>
+        <v>0.000189515774948251</v>
       </c>
       <c r="T10">
-        <v>0.0001160411067473435</v>
+        <v>0.0001895157749482511</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,61 +1098,61 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.840641000000001</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H11">
-        <v>20.521923</v>
+        <v>1.702984</v>
       </c>
       <c r="I11">
-        <v>0.1208991288160603</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J11">
-        <v>0.1208991288160602</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.106217</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N11">
-        <v>3.318651</v>
+        <v>177.734444</v>
       </c>
       <c r="O11">
-        <v>0.01813136626967656</v>
+        <v>0.962887615892719</v>
       </c>
       <c r="P11">
-        <v>0.01813136626967656</v>
+        <v>0.9628876158927191</v>
       </c>
       <c r="Q11">
-        <v>7.567233365097001</v>
+        <v>33.63099048676622</v>
       </c>
       <c r="R11">
-        <v>68.10510028587301</v>
+        <v>302.6789143808959</v>
       </c>
       <c r="S11">
-        <v>0.002192066386248797</v>
+        <v>0.01004247363069356</v>
       </c>
       <c r="T11">
-        <v>0.002192066386248796</v>
+        <v>0.01004247363069356</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.840641000000001</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H12">
-        <v>20.521923</v>
+        <v>1.702984</v>
       </c>
       <c r="I12">
-        <v>0.1208991288160603</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J12">
-        <v>0.1208991288160602</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.24481466666666</v>
+        <v>1.121724666666667</v>
       </c>
       <c r="N12">
-        <v>177.734444</v>
+        <v>3.365174</v>
       </c>
       <c r="O12">
-        <v>0.971047664518299</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="P12">
-        <v>0.971047664518299</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="Q12">
-        <v>405.2725082462014</v>
+        <v>0.6367597199128888</v>
       </c>
       <c r="R12">
-        <v>3647.452574215812</v>
+        <v>5.730837479216</v>
       </c>
       <c r="S12">
-        <v>0.1173988166791323</v>
+        <v>0.0001901413726969859</v>
       </c>
       <c r="T12">
-        <v>0.1173988166791323</v>
+        <v>0.000190141372696986</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.840641000000001</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H13">
-        <v>20.521923</v>
+        <v>1.702984</v>
       </c>
       <c r="I13">
-        <v>0.1208991288160603</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J13">
-        <v>0.1208991288160602</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.6602006666666668</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N13">
-        <v>1.980602</v>
+        <v>0.131107</v>
       </c>
       <c r="O13">
-        <v>0.01082096921202439</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="P13">
-        <v>0.01082096921202439</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="Q13">
-        <v>4.516195748627334</v>
+        <v>0.02480812480977778</v>
       </c>
       <c r="R13">
-        <v>40.645761737646</v>
+        <v>0.223273123288</v>
       </c>
       <c r="S13">
-        <v>0.001308245750679158</v>
+        <v>7.407897764033519E-06</v>
       </c>
       <c r="T13">
-        <v>0.001308245750679158</v>
+        <v>7.40789776403352E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4787493333333333</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H14">
-        <v>1.436248</v>
+        <v>17.469286</v>
       </c>
       <c r="I14">
-        <v>0.008461250535040448</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J14">
-        <v>0.008461250535040448</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,33 +1302,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.106217</v>
+        <v>1.118034</v>
       </c>
       <c r="N14">
-        <v>3.318651</v>
+        <v>3.354102</v>
       </c>
       <c r="O14">
-        <v>0.01813136626967656</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="P14">
-        <v>0.01813136626967656</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="Q14">
-        <v>0.529600651272</v>
+        <v>6.510418567908</v>
       </c>
       <c r="R14">
-        <v>4.766405861448</v>
+        <v>58.59376711117201</v>
       </c>
       <c r="S14">
-        <v>0.0001534140325503151</v>
+        <v>0.0019440612912879</v>
       </c>
       <c r="T14">
-        <v>0.0001534140325503151</v>
+        <v>0.001944061291287901</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4787493333333333</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H15">
-        <v>1.436248</v>
+        <v>17.469286</v>
       </c>
       <c r="I15">
-        <v>0.008461250535040448</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J15">
-        <v>0.008461250535040448</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,27 +1370,27 @@
         <v>177.734444</v>
       </c>
       <c r="O15">
-        <v>0.971047664518299</v>
+        <v>0.962887615892719</v>
       </c>
       <c r="P15">
-        <v>0.971047664518299</v>
+        <v>0.9628876158927191</v>
       </c>
       <c r="Q15">
-        <v>28.36341552512355</v>
+        <v>344.9882038096649</v>
       </c>
       <c r="R15">
-        <v>255.270739726112</v>
+        <v>3104.893834286984</v>
       </c>
       <c r="S15">
-        <v>0.008216277570955235</v>
+        <v>0.1030161434294416</v>
       </c>
       <c r="T15">
-        <v>0.008216277570955235</v>
+        <v>0.1030161434294416</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4787493333333333</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H16">
-        <v>1.436248</v>
+        <v>17.469286</v>
       </c>
       <c r="I16">
-        <v>0.008461250535040448</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J16">
-        <v>0.008461250535040448</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6602006666666668</v>
+        <v>1.121724666666667</v>
       </c>
       <c r="N16">
-        <v>1.980602</v>
+        <v>3.365174</v>
       </c>
       <c r="O16">
-        <v>0.01082096921202439</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="P16">
-        <v>0.01082096921202439</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="Q16">
-        <v>0.3160706290328889</v>
+        <v>6.531909671751556</v>
       </c>
       <c r="R16">
-        <v>2.844635661296</v>
+        <v>58.787187045764</v>
       </c>
       <c r="S16">
-        <v>9.155893153489757E-05</v>
+        <v>0.001950478700960338</v>
       </c>
       <c r="T16">
-        <v>9.155893153489754E-05</v>
+        <v>0.001950478700960338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.823095333333334</v>
+      </c>
+      <c r="H17">
+        <v>17.469286</v>
+      </c>
+      <c r="I17">
+        <v>0.1069866739681064</v>
+      </c>
+      <c r="J17">
+        <v>0.1069866739681064</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.131107</v>
+      </c>
+      <c r="O17">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="P17">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="Q17">
+        <v>0.2544828532891111</v>
+      </c>
+      <c r="R17">
+        <v>2.290345679602</v>
+      </c>
+      <c r="S17">
+        <v>7.59905464165618E-05</v>
+      </c>
+      <c r="T17">
+        <v>7.59905464165618E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3689676666666666</v>
+      </c>
+      <c r="H18">
+        <v>1.106903</v>
+      </c>
+      <c r="I18">
+        <v>0.006778975991080511</v>
+      </c>
+      <c r="J18">
+        <v>0.006778975991080512</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>1.118034</v>
+      </c>
+      <c r="N18">
+        <v>3.354102</v>
+      </c>
+      <c r="O18">
+        <v>0.01817106018145251</v>
+      </c>
+      <c r="P18">
+        <v>0.01817106018145251</v>
+      </c>
+      <c r="Q18">
+        <v>0.4125183962339999</v>
+      </c>
+      <c r="R18">
+        <v>3.712665566106</v>
+      </c>
+      <c r="S18">
+        <v>0.0001231811807025456</v>
+      </c>
+      <c r="T18">
+        <v>0.0001231811807025457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3689676666666666</v>
+      </c>
+      <c r="H19">
+        <v>1.106903</v>
+      </c>
+      <c r="I19">
+        <v>0.006778975991080511</v>
+      </c>
+      <c r="J19">
+        <v>0.006778975991080512</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>59.24481466666666</v>
+      </c>
+      <c r="N19">
+        <v>177.734444</v>
+      </c>
+      <c r="O19">
+        <v>0.962887615892719</v>
+      </c>
+      <c r="P19">
+        <v>0.9628876158927191</v>
+      </c>
+      <c r="Q19">
+        <v>21.85942102965911</v>
+      </c>
+      <c r="R19">
+        <v>196.734789266932</v>
+      </c>
+      <c r="S19">
+        <v>0.006527392030245494</v>
+      </c>
+      <c r="T19">
+        <v>0.006527392030245496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3689676666666666</v>
+      </c>
+      <c r="H20">
+        <v>1.106903</v>
+      </c>
+      <c r="I20">
+        <v>0.006778975991080511</v>
+      </c>
+      <c r="J20">
+        <v>0.006778975991080512</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.121724666666667</v>
+      </c>
+      <c r="N20">
+        <v>3.365174</v>
+      </c>
+      <c r="O20">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="P20">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="Q20">
+        <v>0.4138801329024444</v>
+      </c>
+      <c r="R20">
+        <v>3.724921196122</v>
+      </c>
+      <c r="S20">
+        <v>0.000123587805794072</v>
+      </c>
+      <c r="T20">
+        <v>0.000123587805794072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3689676666666666</v>
+      </c>
+      <c r="H21">
+        <v>1.106903</v>
+      </c>
+      <c r="I21">
+        <v>0.006778975991080511</v>
+      </c>
+      <c r="J21">
+        <v>0.006778975991080512</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.131107</v>
+      </c>
+      <c r="O21">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="P21">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="Q21">
+        <v>0.01612474795788889</v>
+      </c>
+      <c r="R21">
+        <v>0.145122731621</v>
+      </c>
+      <c r="S21">
+        <v>4.814974338397774E-06</v>
+      </c>
+      <c r="T21">
+        <v>4.814974338397775E-06</v>
       </c>
     </row>
   </sheetData>
